--- a/document/02_DB設計/制作物_DB_案.xlsx
+++ b/document/02_DB設計/制作物_DB_案.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザマスター" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">tbm_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">検索条件(以上以下にしたいけど、ややこしいので後回し)</t>
   </si>
   <si>
     <t xml:space="preserve">メーカー名</t>
@@ -323,7 +326,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +337,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -371,7 +380,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -385,6 +394,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -606,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
@@ -651,10 +664,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -677,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
@@ -700,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -753,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -876,10 +889,16 @@
       <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -911,7 +930,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -934,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
@@ -957,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
@@ -1007,7 +1026,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1029,8 +1048,8 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
@@ -1052,8 +1071,8 @@
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
@@ -1103,7 +1122,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1125,8 +1144,8 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
@@ -1148,8 +1167,8 @@
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
@@ -1185,7 +1204,7 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1204,25 +1223,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1280,12 +1299,12 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1336,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1404,34 +1423,34 @@
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>26</v>
@@ -1457,10 +1476,10 @@
         <v>12345</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2" t="n">
         <v>0</v>
@@ -1543,16 +1562,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1563,10 +1582,10 @@
         <v>1234567890</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -1574,30 +1593,30 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
